--- a/restriction_table.xlsx
+++ b/restriction_table.xlsx
@@ -354,12 +354,30 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -501,11 +519,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,6 +549,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -832,7 +853,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T4" sqref="T4"/>
+      <selection pane="topRight" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -846,136 +867,136 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="13.5" thickBot="1">
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:67">
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="5">
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4">
         <v>3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
         <v>2</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>4</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:67" ht="13.5" thickBot="1">
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
         <v>4</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>3</v>
       </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:67">
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="D7" s="8"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
         <v>3</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="I7" s="2">
+      <c r="G7" s="4"/>
+      <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>2</v>
       </c>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10">
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9">
         <v>3</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:67" ht="13.5" thickBot="1">
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6">
+      <c r="E8" s="6"/>
+      <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="I8" s="2">
+      <c r="G8" s="6"/>
+      <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>3</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>4</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>2</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>1</v>
       </c>
       <c r="S8" t="s">
@@ -988,544 +1009,544 @@
       </c>
     </row>
     <row r="11" spans="1:67">
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>4</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>6</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>7</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>8</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>9</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>10</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>11</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>12</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>13</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2">
         <v>14</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="2">
         <v>15</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="2">
         <v>16</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="2">
         <v>17</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="2">
         <v>18</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="2">
         <v>19</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="2">
         <v>20</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="2">
         <v>21</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="2">
         <v>22</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="2">
         <v>23</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="2">
         <v>24</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="2">
         <v>25</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC11" s="2">
         <v>26</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="2">
         <v>27</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE11" s="2">
         <v>28</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF11" s="2">
         <v>29</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AG11" s="2">
         <v>30</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AH11" s="2">
         <v>31</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI11" s="2">
         <v>32</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AJ11" s="2">
         <v>33</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AK11" s="2">
         <v>34</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AL11" s="2">
         <v>35</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AM11" s="2">
         <v>36</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AN11" s="2">
         <v>37</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AO11" s="2">
         <v>38</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AP11" s="2">
         <v>39</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AQ11" s="2">
         <v>40</v>
       </c>
-      <c r="AR11" s="3">
+      <c r="AR11" s="2">
         <v>41</v>
       </c>
-      <c r="AS11" s="3">
+      <c r="AS11" s="2">
         <v>42</v>
       </c>
-      <c r="AT11" s="3">
+      <c r="AT11" s="2">
         <v>43</v>
       </c>
-      <c r="AU11" s="3">
+      <c r="AU11" s="2">
         <v>44</v>
       </c>
-      <c r="AV11" s="3">
+      <c r="AV11" s="2">
         <v>45</v>
       </c>
-      <c r="AW11" s="3">
+      <c r="AW11" s="2">
         <v>46</v>
       </c>
-      <c r="AX11" s="3">
+      <c r="AX11" s="2">
         <v>47</v>
       </c>
-      <c r="AY11" s="3">
+      <c r="AY11" s="2">
         <v>48</v>
       </c>
-      <c r="AZ11" s="3">
+      <c r="AZ11" s="2">
         <v>49</v>
       </c>
-      <c r="BA11" s="3">
+      <c r="BA11" s="2">
         <v>50</v>
       </c>
-      <c r="BB11" s="3">
+      <c r="BB11" s="2">
         <v>51</v>
       </c>
-      <c r="BC11" s="3">
+      <c r="BC11" s="2">
         <v>52</v>
       </c>
-      <c r="BD11" s="3">
+      <c r="BD11" s="2">
         <v>53</v>
       </c>
-      <c r="BE11" s="3">
+      <c r="BE11" s="2">
         <v>54</v>
       </c>
-      <c r="BF11" s="3">
+      <c r="BF11" s="2">
         <v>55</v>
       </c>
-      <c r="BG11" s="3">
+      <c r="BG11" s="2">
         <v>56</v>
       </c>
-      <c r="BH11" s="3">
+      <c r="BH11" s="2">
         <v>57</v>
       </c>
-      <c r="BI11" s="3">
+      <c r="BI11" s="2">
         <v>58</v>
       </c>
-      <c r="BJ11" s="3">
+      <c r="BJ11" s="2">
         <v>59</v>
       </c>
-      <c r="BK11" s="3">
+      <c r="BK11" s="2">
         <v>60</v>
       </c>
-      <c r="BL11" s="3">
+      <c r="BL11" s="2">
         <v>61</v>
       </c>
-      <c r="BM11" s="3">
+      <c r="BM11" s="2">
         <v>62</v>
       </c>
-      <c r="BN11" s="3">
+      <c r="BN11" s="2">
         <v>63</v>
       </c>
-      <c r="BO11" s="3">
+      <c r="BO11" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:67">
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1" t="s">
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1" t="s">
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
-      <c r="BM12" s="1"/>
-      <c r="BN12" s="1"/>
-      <c r="BO12" s="1"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+      <c r="BF12" s="11"/>
+      <c r="BG12" s="11"/>
+      <c r="BH12" s="11"/>
+      <c r="BI12" s="11"/>
+      <c r="BJ12" s="11"/>
+      <c r="BK12" s="11"/>
+      <c r="BL12" s="11"/>
+      <c r="BM12" s="11"/>
+      <c r="BN12" s="11"/>
+      <c r="BO12" s="11"/>
     </row>
     <row r="13" spans="1:67">
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1" t="s">
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1" t="s">
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1" t="s">
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1" t="s">
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1" t="s">
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1" t="s">
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1" t="s">
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1" t="s">
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1" t="s">
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1" t="s">
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1" t="s">
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
+      <c r="BL13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="BM13" s="1"/>
-      <c r="BN13" s="1"/>
-      <c r="BO13" s="1"/>
+      <c r="BM13" s="11"/>
+      <c r="BN13" s="11"/>
+      <c r="BO13" s="11"/>
     </row>
     <row r="14" spans="1:67">
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AB14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AD14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AE14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AF14" s="3" t="s">
+      <c r="AF14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AG14" s="3" t="s">
+      <c r="AG14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH14" s="3" t="s">
+      <c r="AH14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AI14" s="3" t="s">
+      <c r="AI14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ14" s="3" t="s">
+      <c r="AJ14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AK14" s="3" t="s">
+      <c r="AK14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AL14" s="3" t="s">
+      <c r="AL14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AM14" s="3" t="s">
+      <c r="AM14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AN14" s="3" t="s">
+      <c r="AN14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO14" s="3" t="s">
+      <c r="AO14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP14" s="3" t="s">
+      <c r="AP14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ14" s="3" t="s">
+      <c r="AQ14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR14" s="3" t="s">
+      <c r="AR14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AS14" s="3" t="s">
+      <c r="AS14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AT14" s="3" t="s">
+      <c r="AT14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AU14" s="3" t="s">
+      <c r="AU14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AV14" s="3" t="s">
+      <c r="AV14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AW14" s="3" t="s">
+      <c r="AW14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AX14" s="3" t="s">
+      <c r="AX14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AY14" s="3" t="s">
+      <c r="AY14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AZ14" s="3">
+      <c r="AZ14" s="2">
         <v>0</v>
       </c>
-      <c r="BA14" s="3">
-        <v>1</v>
-      </c>
-      <c r="BB14" s="3">
+      <c r="BA14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="2">
         <v>2</v>
       </c>
-      <c r="BC14" s="3">
+      <c r="BC14" s="2">
         <v>3</v>
       </c>
-      <c r="BD14" s="3">
+      <c r="BD14" s="2">
         <v>0</v>
       </c>
-      <c r="BE14" s="3">
-        <v>1</v>
-      </c>
-      <c r="BF14" s="3">
+      <c r="BE14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="2">
         <v>2</v>
       </c>
-      <c r="BG14" s="3">
+      <c r="BG14" s="2">
         <v>3</v>
       </c>
-      <c r="BH14" s="3">
+      <c r="BH14" s="2">
         <v>0</v>
       </c>
-      <c r="BI14" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ14" s="3">
+      <c r="BI14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="2">
         <v>2</v>
       </c>
-      <c r="BK14" s="3">
+      <c r="BK14" s="2">
         <v>3</v>
       </c>
-      <c r="BL14" s="3">
+      <c r="BL14" s="2">
         <v>0</v>
       </c>
-      <c r="BM14" s="3">
-        <v>1</v>
-      </c>
-      <c r="BN14" s="3">
+      <c r="BM14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN14" s="2">
         <v>2</v>
       </c>
-      <c r="BO14" s="3">
+      <c r="BO14" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1569,23 +1590,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:65">
-      <c r="B17" t="s">
+    <row r="17" spans="2:65" s="14" customFormat="1">
+      <c r="B17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="14">
         <v>3</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AR17">
-        <v>1</v>
-      </c>
-      <c r="BH17">
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="14">
+        <v>1</v>
+      </c>
+      <c r="BH17" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1649,23 +1670,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:65">
-      <c r="B21" t="s">
+    <row r="21" spans="2:65" s="14" customFormat="1">
+      <c r="B21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="14">
         <v>7</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AS21">
-        <v>1</v>
-      </c>
-      <c r="BH21">
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="14">
+        <v>1</v>
+      </c>
+      <c r="BH21" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1729,23 +1750,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:65">
-      <c r="B25" t="s">
+    <row r="25" spans="2:65" s="14" customFormat="1">
+      <c r="B25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="14">
         <v>11</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AT25">
-        <v>1</v>
-      </c>
-      <c r="BI25">
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1769,143 +1790,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:65">
-      <c r="B27" t="s">
+    <row r="27" spans="2:65" s="12" customFormat="1">
+      <c r="B27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="12">
         <v>13</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="BA27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:65">
-      <c r="B28" t="s">
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="T27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:65" s="12" customFormat="1">
+      <c r="B28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="12">
         <v>14</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="AQ28">
-        <v>1</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:65">
-      <c r="B29" t="s">
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="X28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="12">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:65" s="13" customFormat="1">
+      <c r="B29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="13">
         <v>15</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="AB29">
-        <v>1</v>
-      </c>
-      <c r="AU29">
-        <v>1</v>
-      </c>
-      <c r="BI29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:65">
-      <c r="B30" t="s">
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="13">
+        <v>1</v>
+      </c>
+      <c r="BI29" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:65" s="12" customFormat="1">
+      <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="12">
         <v>16</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <v>1</v>
-      </c>
-      <c r="BM30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:65">
-      <c r="B31" t="s">
+      <c r="G30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AY30" s="12">
+        <v>1</v>
+      </c>
+      <c r="BM30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:65" s="12" customFormat="1">
+      <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="12">
         <v>17</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="AJ31">
-        <v>1</v>
-      </c>
-      <c r="AZ31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:65">
-      <c r="B32" t="s">
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
+      <c r="U31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:65" s="12" customFormat="1">
+      <c r="B32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="12">
         <v>18</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="Y32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="BD32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:65">
-      <c r="B33" t="s">
+      <c r="H32" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="12">
+        <v>1</v>
+      </c>
+      <c r="BD32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:65" s="12" customFormat="1">
+      <c r="B33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="12">
         <v>19</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="AC33">
-        <v>1</v>
-      </c>
-      <c r="AR33">
-        <v>1</v>
-      </c>
-      <c r="BH33">
+      <c r="H33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH33" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2049,23 +2070,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:65">
-      <c r="B41" t="s">
+    <row r="41" spans="2:65" s="14" customFormat="1">
+      <c r="B41" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="14">
         <v>27</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="AC41">
-        <v>1</v>
-      </c>
-      <c r="AT41">
-        <v>1</v>
-      </c>
-      <c r="BI41">
+      <c r="J41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT41" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI41" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2129,23 +2150,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:65">
-      <c r="B45" t="s">
+    <row r="45" spans="2:65" s="14" customFormat="1">
+      <c r="B45" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="14">
         <v>31</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="AC45">
-        <v>1</v>
-      </c>
-      <c r="AU45">
-        <v>1</v>
-      </c>
-      <c r="BI45">
+      <c r="K45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI45" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2269,103 +2290,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:67">
-      <c r="B52" t="s">
+    <row r="52" spans="2:67" s="12" customFormat="1">
+      <c r="B52" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="12">
         <v>38</v>
       </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="Z52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <v>1</v>
-      </c>
-      <c r="BF52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:67">
-      <c r="B53" t="s">
+      <c r="M52" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO52" s="12">
+        <v>1</v>
+      </c>
+      <c r="BF52" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:67" s="12" customFormat="1">
+      <c r="B53" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="12">
         <v>39</v>
       </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="AD53">
-        <v>1</v>
-      </c>
-      <c r="AS53">
-        <v>1</v>
-      </c>
-      <c r="BJ53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:67">
-      <c r="B54" t="s">
+      <c r="M53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS53" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ53" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:67" s="12" customFormat="1">
+      <c r="B54" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="12">
         <v>40</v>
       </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="AH54">
-        <v>1</v>
-      </c>
-      <c r="AW54">
-        <v>1</v>
-      </c>
-      <c r="BN54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:67">
-      <c r="B55" t="s">
+      <c r="M54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AW54" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN54" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:67" s="12" customFormat="1">
+      <c r="B55" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="12">
         <v>41</v>
       </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="V55">
-        <v>1</v>
-      </c>
-      <c r="AL55">
-        <v>1</v>
-      </c>
-      <c r="BC55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:67">
-      <c r="B56" t="s">
+      <c r="N55" s="12">
+        <v>1</v>
+      </c>
+      <c r="V55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL55" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:67" s="12" customFormat="1">
+      <c r="B56" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="12">
         <v>42</v>
       </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="Z56">
-        <v>1</v>
-      </c>
-      <c r="AP56">
-        <v>1</v>
-      </c>
-      <c r="BG56">
+      <c r="N56" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP56" s="12">
+        <v>1</v>
+      </c>
+      <c r="BG56" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2389,23 +2410,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:67">
-      <c r="B58" t="s">
+    <row r="58" spans="2:67" s="12" customFormat="1">
+      <c r="B58" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="12">
         <v>44</v>
       </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="AH58">
-        <v>1</v>
-      </c>
-      <c r="AX58">
-        <v>1</v>
-      </c>
-      <c r="BO58">
+      <c r="N58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AX58" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO58" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2449,23 +2470,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:67">
-      <c r="B61" t="s">
+    <row r="61" spans="2:67" s="14" customFormat="1">
+      <c r="B61" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="14">
         <v>47</v>
       </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="AD61">
-        <v>1</v>
-      </c>
-      <c r="AU61">
-        <v>1</v>
-      </c>
-      <c r="BK61">
+      <c r="O61" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU61" s="14">
+        <v>1</v>
+      </c>
+      <c r="BK61" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2489,43 +2510,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:67">
-      <c r="B63" t="s">
+    <row r="63" spans="2:67" s="12" customFormat="1">
+      <c r="B63" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="12">
         <v>49</v>
       </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-      <c r="W63">
-        <v>1</v>
-      </c>
-      <c r="AJ63">
-        <v>1</v>
-      </c>
-      <c r="BB63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:67">
-      <c r="B64" t="s">
+      <c r="P63" s="12">
+        <v>1</v>
+      </c>
+      <c r="W63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ63" s="12">
+        <v>1</v>
+      </c>
+      <c r="BB63" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:67" s="12" customFormat="1">
+      <c r="B64" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="12">
         <v>50</v>
       </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="AA64">
-        <v>1</v>
-      </c>
-      <c r="AN64">
-        <v>1</v>
-      </c>
-      <c r="BF64">
+      <c r="P64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN64" s="12">
+        <v>1</v>
+      </c>
+      <c r="BF64" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2549,23 +2570,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:67">
-      <c r="B66" t="s">
+    <row r="66" spans="2:67" s="12" customFormat="1">
+      <c r="B66" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="12">
         <v>52</v>
       </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
-      <c r="AI66">
-        <v>1</v>
-      </c>
-      <c r="AV66">
-        <v>1</v>
-      </c>
-      <c r="BN66">
+      <c r="P66" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV66" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN66" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2649,23 +2670,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:67">
-      <c r="B71" t="s">
+    <row r="71" spans="2:67" s="12" customFormat="1">
+      <c r="B71" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="12">
         <v>57</v>
       </c>
-      <c r="R71">
-        <v>1</v>
-      </c>
-      <c r="W71">
-        <v>1</v>
-      </c>
-      <c r="AL71">
-        <v>1</v>
-      </c>
-      <c r="BC71">
+      <c r="R71" s="12">
+        <v>1</v>
+      </c>
+      <c r="W71" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL71" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC71" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2689,43 +2710,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:67">
-      <c r="B73" t="s">
+    <row r="73" spans="2:67" s="12" customFormat="1">
+      <c r="B73" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="12">
         <v>59</v>
       </c>
-      <c r="R73">
-        <v>1</v>
-      </c>
-      <c r="AE73">
-        <v>1</v>
-      </c>
-      <c r="AT73">
-        <v>1</v>
-      </c>
-      <c r="BK73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:67">
-      <c r="B74" t="s">
+      <c r="R73" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE73" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT73" s="12">
+        <v>1</v>
+      </c>
+      <c r="BK73" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:67" s="12" customFormat="1">
+      <c r="B74" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="12">
         <v>60</v>
       </c>
-      <c r="R74">
-        <v>1</v>
-      </c>
-      <c r="AI74">
-        <v>1</v>
-      </c>
-      <c r="AX74">
-        <v>1</v>
-      </c>
-      <c r="BO74">
+      <c r="R74" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="12">
+        <v>1</v>
+      </c>
+      <c r="AX74" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO74" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2769,23 +2790,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:67">
-      <c r="B77" t="s">
+    <row r="77" spans="2:67" s="14" customFormat="1">
+      <c r="B77" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="14">
         <v>63</v>
       </c>
-      <c r="S77">
-        <v>1</v>
-      </c>
-      <c r="AE77">
-        <v>1</v>
-      </c>
-      <c r="AU77">
-        <v>1</v>
-      </c>
-      <c r="BK77">
+      <c r="S77" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE77" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU77" s="14">
+        <v>1</v>
+      </c>
+      <c r="BK77" s="14">
         <v>1</v>
       </c>
     </row>
